--- a/Abreviaturas.xlsx
+++ b/Abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="157">
   <si>
     <t>Descripción</t>
   </si>
@@ -340,6 +340,153 @@
   </si>
   <si>
     <t>zona común</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>sing0</t>
+  </si>
+  <si>
+    <t>sing1</t>
+  </si>
+  <si>
+    <t>contador global</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>contador local</t>
+  </si>
+  <si>
+    <t>singular (0)</t>
+  </si>
+  <si>
+    <t>singular (1)</t>
+  </si>
+  <si>
+    <t>ps</t>
+  </si>
+  <si>
+    <t>paso superior</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>división</t>
+  </si>
+  <si>
+    <t>restar</t>
+  </si>
+  <si>
+    <t>medio</t>
+  </si>
+  <si>
+    <t>viad</t>
+  </si>
+  <si>
+    <t>viaducto</t>
+  </si>
+  <si>
+    <t>pila</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>referencia</t>
+  </si>
+  <si>
+    <t>aguja</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>r0</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>radio (0)</t>
+  </si>
+  <si>
+    <t>radio (1)</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
+    <t>regulación</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>parámetro</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>guardar</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>tramo central</t>
+  </si>
+  <si>
+    <t>tramo inicial y final</t>
+  </si>
+  <si>
+    <t>tif</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>bis</t>
+  </si>
+  <si>
+    <t>rev</t>
+  </si>
+  <si>
+    <t>revisión</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>comentarios</t>
+  </si>
+  <si>
+    <t>pto</t>
+  </si>
+  <si>
+    <t>punto</t>
   </si>
 </sst>
 </file>
@@ -715,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B88"/>
+  <dimension ref="A1:B90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1184,128 +1331,260 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="A58" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="A59" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="A67" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="A68" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="A74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="A75" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="A76" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="A78" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="A79" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="A80" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="A81" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="A82" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="A83" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
+      <c r="A84" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
+      <c r="A85" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+      <c r="A86" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
+      <c r="A87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
+      <c r="A88" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/Abreviaturas.xlsx
+++ b/Abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="208">
   <si>
     <t>Descripción</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Abreviación</t>
   </si>
   <si>
-    <t>as</t>
-  </si>
-  <si>
     <t>e</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>sustentador</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>per</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>vía</t>
   </si>
   <si>
-    <t>distancia entre base de poste y plano medio rodadura</t>
-  </si>
-  <si>
     <t>pmr</t>
   </si>
   <si>
@@ -487,6 +478,168 @@
   </si>
   <si>
     <t>punto</t>
+  </si>
+  <si>
+    <t>anc</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>lac</t>
+  </si>
+  <si>
+    <t>línea aérea de contacto</t>
+  </si>
+  <si>
+    <t>nueva</t>
+  </si>
+  <si>
+    <t>sist</t>
+  </si>
+  <si>
+    <t>sistema</t>
+  </si>
+  <si>
+    <t>al</t>
+  </si>
+  <si>
+    <t>alimentación</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>ancho</t>
+  </si>
+  <si>
+    <t>normalizado</t>
+  </si>
+  <si>
+    <t>zona</t>
+  </si>
+  <si>
+    <t>trab</t>
+  </si>
+  <si>
+    <t>trabajo</t>
+  </si>
+  <si>
+    <t>pant</t>
+  </si>
+  <si>
+    <t>pantógrafo</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>flecha</t>
+  </si>
+  <si>
+    <t>centro</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>elect</t>
+  </si>
+  <si>
+    <t>eléctrica</t>
+  </si>
+  <si>
+    <t>fijo</t>
+  </si>
+  <si>
+    <t>posicion</t>
+  </si>
+  <si>
+    <t>posición</t>
+  </si>
+  <si>
+    <t>adm</t>
+  </si>
+  <si>
+    <t>administración</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>línea</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>numeración</t>
+  </si>
+  <si>
+    <t>tubo</t>
+  </si>
+  <si>
+    <t>men</t>
+  </si>
+  <si>
+    <t>ménsula</t>
+  </si>
+  <si>
+    <t>tir</t>
+  </si>
+  <si>
+    <t>tirante</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>aisl</t>
+  </si>
+  <si>
+    <t>aislador</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t>apoyo</t>
+  </si>
+  <si>
+    <t>prim</t>
+  </si>
+  <si>
+    <t>primera</t>
+  </si>
+  <si>
+    <t>seg</t>
+  </si>
+  <si>
+    <t>segunda</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>contraseña</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>combobox</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>sust</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
@@ -552,14 +705,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -875,718 +1028,953 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B90" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>0</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>2</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-    </row>
   </sheetData>
+  <sortState ref="A2:B119">
+    <sortCondition ref="A2"/>
+  </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="256" orientation="portrait" r:id="rId1"/>

--- a/Abreviaturas.xlsx
+++ b/Abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="210">
   <si>
     <t>Descripción</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>se</t>
+  </si>
+  <si>
+    <t>traz</t>
+  </si>
+  <si>
+    <t>trazado</t>
   </si>
 </sst>
 </file>
@@ -1015,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1036,467 +1042,467 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
+      <c r="A2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
+      <c r="A4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>162</v>
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+      <c r="A9" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
+      <c r="A10" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>164</v>
+      <c r="A11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>195</v>
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>174</v>
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>87</v>
+      <c r="A17" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
+      <c r="A20" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>100</v>
+      <c r="A21" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>173</v>
+      <c r="A22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>191</v>
+      <c r="A24" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>203</v>
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>201</v>
+      <c r="A27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>119</v>
+      <c r="A32" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>176</v>
+      <c r="A35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>177</v>
+      <c r="A38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>88</v>
+      <c r="A39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>172</v>
+      <c r="A40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>111</v>
+      <c r="A42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>81</v>
+      <c r="A44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>188</v>
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>102</v>
+      <c r="A56" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1508,107 +1514,107 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>165</v>
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1620,347 +1626,347 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>64</v>
+      <c r="A75" s="1">
+        <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>197</v>
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>116</v>
+      <c r="A77" s="1">
+        <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>34</v>
+      <c r="A80" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>207</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>199</v>
+      <c r="A91" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>143</v>
+      <c r="A98" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>205</v>
+      <c r="A99" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>200</v>
+      <c r="A106" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>33</v>
+        <v>209</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>140</v>
+      <c r="A108" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>123</v>
+      <c r="A110" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>113</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,9 +1977,17 @@
         <v>103</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B119">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="B119"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Abreviaturas.xlsx
+++ b/Abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="267">
   <si>
     <t>Descripción</t>
   </si>
@@ -646,6 +646,177 @@
   </si>
   <si>
     <t>trazado</t>
+  </si>
+  <si>
+    <t>cyc</t>
+  </si>
+  <si>
+    <t>conductores y cables</t>
+  </si>
+  <si>
+    <t>ejex</t>
+  </si>
+  <si>
+    <t>eje x</t>
+  </si>
+  <si>
+    <t>ejey</t>
+  </si>
+  <si>
+    <t>eje y</t>
+  </si>
+  <si>
+    <t>origen</t>
+  </si>
+  <si>
+    <t>norma</t>
+  </si>
+  <si>
+    <t>desm</t>
+  </si>
+  <si>
+    <t>desmonte</t>
+  </si>
+  <si>
+    <t>terrap</t>
+  </si>
+  <si>
+    <t>terraplén</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>resistencia</t>
+  </si>
+  <si>
+    <t>resist</t>
+  </si>
+  <si>
+    <t>resistente</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>flexión</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>sección</t>
+  </si>
+  <si>
+    <t>modificar</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>volúmen</t>
+  </si>
+  <si>
+    <t>tg</t>
+  </si>
+  <si>
+    <t>tangente</t>
+  </si>
+  <si>
+    <t>tabla</t>
+  </si>
+  <si>
+    <t>fuerza</t>
+  </si>
+  <si>
+    <t>viento</t>
+  </si>
+  <si>
+    <t>enc</t>
+  </si>
+  <si>
+    <t>encastrado</t>
+  </si>
+  <si>
+    <t>nenc</t>
+  </si>
+  <si>
+    <t>no encastrado</t>
+  </si>
+  <si>
+    <t>ent</t>
+  </si>
+  <si>
+    <t>enterrado</t>
+  </si>
+  <si>
+    <t>nent</t>
+  </si>
+  <si>
+    <t>no enterrado</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>calculado</t>
+  </si>
+  <si>
+    <t>coef</t>
+  </si>
+  <si>
+    <t>coeficiente</t>
+  </si>
+  <si>
+    <t>dil</t>
+  </si>
+  <si>
+    <t>dilatación</t>
+  </si>
+  <si>
+    <t>carga</t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>rotura</t>
+  </si>
+  <si>
+    <t>mod</t>
+  </si>
+  <si>
+    <t>módulo</t>
+  </si>
+  <si>
+    <t>elast</t>
+  </si>
+  <si>
+    <t>elástico</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>momento</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>material</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1138,856 +1309,1136 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
+      <c r="A14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>111</v>
+      <c r="A23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>111</v>
+      <c r="A24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>111</v>
+      <c r="A26" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>201</v>
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>82</v>
+      <c r="A36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>176</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>73</v>
+      <c r="A41" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>177</v>
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>172</v>
+      <c r="A44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>32</v>
+      <c r="A45" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>141</v>
+      <c r="A46" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>44</v>
+      <c r="A47" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>81</v>
+      <c r="A48" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>157</v>
+      <c r="A51" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>96</v>
+      <c r="A53" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>121</v>
+      <c r="A55" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>85</v>
+      <c r="A57" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>165</v>
+      <c r="A62" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>185</v>
+      <c r="A64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>170</v>
+      <c r="A66" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>138</v>
+      <c r="A67" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>80</v>
+      <c r="A70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>124</v>
+      <c r="A72" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>79</v>
+      <c r="A73" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
-        <v>0</v>
+      <c r="A75" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
-        <v>1</v>
+      <c r="A76" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
-        <v>2</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>94</v>
+      <c r="A77" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>98</v>
+      <c r="A78" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>197</v>
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>153</v>
+      <c r="A81" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>75</v>
+      <c r="A82" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>86</v>
+      <c r="A83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>34</v>
+      <c r="A84" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>132</v>
+      <c r="A86" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>39</v>
+      <c r="A87" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>135</v>
+      <c r="A89" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>199</v>
+      <c r="A94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>114</v>
+      <c r="A96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>110</v>
+      <c r="A97" s="1">
+        <v>0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>160</v>
+      <c r="A98" s="1">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>206</v>
+      <c r="A99" s="1">
+        <v>2</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>205</v>
+      <c r="A101" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>83</v>
+      <c r="A102" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>190</v>
+      <c r="A103" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>168</v>
+      <c r="A104" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>186</v>
+      <c r="A108" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>200</v>
+      <c r="A110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>33</v>
+      <c r="A112" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>43</v>
+      <c r="A113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>166</v>
+        <v>257</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>166</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>104</v>
+      <c r="A117" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B119">
-    <sortCondition ref="B119"/>
+  <sortState ref="A2:B154">
+    <sortCondition ref="B154"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Abreviaturas.xlsx
+++ b/Abreviaturas.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="10335" windowHeight="4965"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="293">
   <si>
     <t>Descripción</t>
   </si>
@@ -817,6 +817,84 @@
   </si>
   <si>
     <t>material</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>atirantado</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>admisible</t>
+  </si>
+  <si>
+    <t>comp</t>
+  </si>
+  <si>
+    <t>compresión</t>
+  </si>
+  <si>
+    <t>equip</t>
+  </si>
+  <si>
+    <t>equipamiento</t>
+  </si>
+  <si>
+    <t>idioma</t>
+  </si>
+  <si>
+    <t>masa</t>
+  </si>
+  <si>
+    <t>perf</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>separación</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>pres</t>
+  </si>
+  <si>
+    <t>presión</t>
+  </si>
+  <si>
+    <t>trac</t>
+  </si>
+  <si>
+    <t>tracción</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>horiz</t>
+  </si>
+  <si>
+    <t>sup</t>
+  </si>
+  <si>
+    <t>superficie</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1270,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B154"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1221,1224 +1300,1344 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>251</v>
+      <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>66</v>
+      <c r="A17" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>203</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
+      <c r="A27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>111</v>
+      <c r="A29" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>111</v>
+      <c r="A30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>201</v>
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>219</v>
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>29</v>
+      <c r="A40" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>255</v>
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
+      <c r="A43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>73</v>
+      <c r="A52" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>177</v>
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>88</v>
+      <c r="A54" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>240</v>
+      <c r="A57" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>32</v>
+      <c r="A58" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>44</v>
+      <c r="A60" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>81</v>
+      <c r="A61" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>89</v>
+      <c r="A62" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>183</v>
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>96</v>
+      <c r="A66" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>231</v>
+      <c r="A72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>260</v>
+      <c r="A73" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>102</v>
+      <c r="A75" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>245</v>
+      <c r="A77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>248</v>
+        <v>187</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>249</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>23</v>
+      <c r="A80" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>163</v>
+        <v>263</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>158</v>
+      <c r="A83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>185</v>
+      <c r="A84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>42</v>
+      <c r="A85" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>170</v>
+      <c r="A87" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>137</v>
+        <v>6</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>117</v>
+      <c r="A90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>101</v>
+      <c r="A91" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>80</v>
+      <c r="A92" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>124</v>
+      <c r="A94" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>79</v>
+      <c r="A95" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>179</v>
+      <c r="A96" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
-        <v>0</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>92</v>
+      <c r="A97" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
-        <v>1</v>
+      <c r="A98" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
-        <v>2</v>
+      <c r="A99" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>64</v>
+      <c r="A101" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>197</v>
+      <c r="A102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>86</v>
+      <c r="A105" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>35</v>
+      <c r="A106" s="1">
+        <v>0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>129</v>
+      <c r="A107" s="1">
+        <v>1</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>130</v>
+      <c r="A108" s="1">
+        <v>2</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>135</v>
+      <c r="A111" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>225</v>
+      <c r="A113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>258</v>
+      <c r="A116" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>230</v>
+      <c r="A117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>199</v>
+      <c r="A120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>114</v>
+      <c r="A122" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>115</v>
+      <c r="A123" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>160</v>
+      <c r="A124" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>221</v>
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>190</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>234</v>
+      <c r="A133" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>234</v>
+      <c r="A134" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>143</v>
+      <c r="A136" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>209</v>
+      <c r="A138" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>186</v>
+      <c r="A140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>97</v>
+      <c r="A141" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>33</v>
+      <c r="A144" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>43</v>
+      <c r="A145" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>77</v>
+      <c r="A147" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>123</v>
+      <c r="A148" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>241</v>
+      <c r="A149" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>236</v>
+      <c r="A150" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>166</v>
+      <c r="A151" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>104</v>
+      <c r="A152" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>103</v>
+      <c r="A153" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B154">
-    <sortCondition ref="B154"/>
+  <sortState ref="A2:B169">
+    <sortCondition ref="B169"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2448,6 +2647,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2460,6 +2660,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Abreviaturas.xlsx
+++ b/Abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="301">
   <si>
     <t>Descripción</t>
   </si>
@@ -895,6 +895,30 @@
   </si>
   <si>
     <t>superficie</t>
+  </si>
+  <si>
+    <t>cont</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>izq</t>
+  </si>
+  <si>
+    <t>izquierda</t>
+  </si>
+  <si>
+    <t>der</t>
+  </si>
+  <si>
+    <t>derecha</t>
+  </si>
+  <si>
+    <t>acum</t>
+  </si>
+  <si>
+    <t>acumulado</t>
   </si>
 </sst>
 </file>
@@ -931,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -954,11 +978,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -967,6 +1002,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1271,10 +1309,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1493,47 +1531,47 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>111</v>
@@ -1541,7 +1579,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>111</v>
@@ -1549,7 +1587,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>111</v>
@@ -1557,15 +1595,15 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>4</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>113</v>
@@ -1573,7 +1611,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>113</v>
@@ -1581,7 +1619,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>113</v>
@@ -1589,858 +1627,858 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>228</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>141</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="3" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
-        <v>0</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
         <v>2</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>131</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>126</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B140" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2453,186 +2491,218 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B167" s="3" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/Abreviaturas.xlsx
+++ b/Abreviaturas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="303">
   <si>
     <t>Descripción</t>
   </si>
@@ -919,6 +919,12 @@
   </si>
   <si>
     <t>acumulado</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>iteración</t>
   </si>
 </sst>
 </file>
@@ -955,7 +961,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -978,22 +984,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1002,9 +997,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,10 +1301,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1330,875 +1322,875 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>181</v>
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>270</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>193</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>162</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
+      <c r="A7" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>164</v>
+      <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+      <c r="A9" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>251</v>
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>251</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>191</v>
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>294</v>
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>111</v>
+      <c r="A33" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>111</v>
+      <c r="A34" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>111</v>
+      <c r="A35" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>113</v>
+      <c r="A36" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>113</v>
+      <c r="A38" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>113</v>
+      <c r="A40" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>38</v>
+      <c r="A43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>219</v>
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>255</v>
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
+      <c r="A47" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>119</v>
+      <c r="A48" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>76</v>
+      <c r="A54" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>243</v>
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>247</v>
+      <c r="A56" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>88</v>
+      <c r="A60" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>228</v>
+      <c r="A62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>240</v>
+      <c r="A63" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>141</v>
+      <c r="A65" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>44</v>
+      <c r="A66" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>289</v>
+      <c r="A67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>275</v>
+      <c r="A68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>81</v>
+      <c r="A69" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>89</v>
+      <c r="A70" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>183</v>
+      <c r="A71" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>96</v>
+      <c r="A74" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>276</v>
+      <c r="B75" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>260</v>
+      <c r="A82" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>249</v>
+      <c r="A87" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>23</v>
+      <c r="A89" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>165</v>
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>158</v>
+      <c r="A92" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>42</v>
+      <c r="A94" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>124</v>
+      <c r="A104" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
-        <v>0</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
-        <v>1</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
-        <v>2</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2227,26 +2219,26 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -2338,27 +2330,27 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>230</v>
+      <c r="A128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>9</v>
+        <v>207</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>25</v>
+      <c r="A130" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -2370,344 +2362,352 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>21</v>
+      <c r="A132" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>280</v>
+      <c r="A133" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>115</v>
+      <c r="A135" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>160</v>
+      <c r="A136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>221</v>
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>234</v>
+      <c r="A146" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>234</v>
+      <c r="A147" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B155" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>166</v>
+      <c r="A167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>300</v>
+      <c r="A173" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B169">
-    <sortCondition ref="B169"/>
+  <sortState ref="A2:B174">
+    <sortCondition ref="A2"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
